--- a/biology/Botanique/Cypripède_soulier/Cypripède_soulier.xlsx
+++ b/biology/Botanique/Cypripède_soulier/Cypripède_soulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyprip%C3%A8de_soulier</t>
+          <t>Cypripède_soulier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypripedium parviflorum
 Cypripedium parviflorum est une espèce de plantes à fleurs de la famille des Orchidaceae d'origine nord-américaine. La variété pubescens est morphologiquement très proche de l'espèce européenne Cypripedium calceolus mais ses exigences écologiques sont différentes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyprip%C3%A8de_soulier</t>
+          <t>Cypripède_soulier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Large yellow lady’s slipper
 Sabot de la Vierge
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyprip%C3%A8de_soulier</t>
+          <t>Cypripède_soulier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypripedium parviflorum mesure entre 10 et 70 cm de haut. C’est une plante robuste possédant 3 à 5 feuilles, d’une longueur de 5 à 20 cm, d’un vert brillant, ondulées et de forme elliptique. La plante tout entière est recouverte d’un fin duvet.
 La tige porte une ou 2 grandes fleurs jaunes. Les sépales sont vert jaunâtre, lisérés de brun ou de pourpre. Les pétales latéraux sont étroits, 5 à 9 cm de long, spiralés et vert jaunâtre, tout comme les sépales. Le labelle, en forme de pantoufle, mesure entre 3 et 6,5 cm de long. Il est jaune pâle avec de petits points rouges pourpres à l’intérieur. Il est si gonflé qu’il offre une résistance à la pression. Une plaque translucide apparaît à la base de la partie postérieure quand la fleur commence à flétrir.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyprip%C3%A8de_soulier</t>
+          <t>Cypripède_soulier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Cycle de vie et reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa reproduction repose surtout sur la reproduction végétative des individus.
 </t>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cyprip%C3%A8de_soulier</t>
+          <t>Cypripède_soulier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypripedium parviflorum est un habitant des forêts humides aux sols riches.
 </t>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cyprip%C3%A8de_soulier</t>
+          <t>Cypripède_soulier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">De la Nouvelle-Écosse au Minnesota, jusqu’en Nouvelle-Angleterre, en Géorgie, en Alabama, au Tennessee et au Missouri.
 </t>
